--- a/Docs/Best Rewards.xlsx
+++ b/Docs/Best Rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignazioemanuelepicciche/Documents/Ignazio PC/ucbm/deep_learning/Reinforcement_Learning_MuJoCu/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43A306-5BE8-004E-A67A-5E360796A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F7FB6-1014-7848-9690-67997314135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{C9C1077D-C134-CF42-B9E2-07BC45F34DC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="201">
   <si>
     <t xml:space="preserve"> 'n_steps': 4096</t>
   </si>
@@ -339,13 +339,313 @@
   </si>
   <si>
     <t>Ignazio</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.06176749923372797</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.5504015995680334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2180960763983233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 1.9998666452029779</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 8.52879039988174e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.25263984391782135</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 0.9125880030329633</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -0.8306327069096432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.066172831739363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 0.0006900625510296362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9685625848663376</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9667739309598746</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.10444192716152097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.02843972985031258}</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.05643887152139423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.6571735389009492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2459307943421456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.1887877456647273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 3.359821608235945e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.2931915606319033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.1481704672437232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -1.0300470905265697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.0893204485382713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 4.741460073775156e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9544796539113963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9688396129147425</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.15375460930777995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.04630593810555868}. Best is trial 84 with value: 2515.3490927833504. </t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.10607699433284129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.6668790447154926</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2115693079234886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.177936785230577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 2.981532073032642e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.2790007638999445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.1418649508182963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -0.9901891240611708</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.1036610621597795</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 2.2146392046801565e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9569206349351246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9760177799728192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.16061226507156273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.010680845836646942}. Best is trial 84 with value: 2515.3490927833504. </t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.1013581738789601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.6707364645088916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.0861366497480842</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 1.9697627580995323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 7.780811330808112e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.27885785151594916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.1253891835759176</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -0.9882445019648559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.1197603905245803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 2.1229996291504062e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.956938042674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.975384780562521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.15948240301721692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.011689565605317911}. Best is trial 84 with value: 2515.3490927833504.</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.12127433504965399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.6794900681547407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2006320750333674</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.199885510503016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 2.9056450367379116e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.27346255182504237</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.136740954588402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -0.9822376850091946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.1044898243134231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 2.856146384021861e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9576125026507624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9762847346308349</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.16535105962497423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.006919639677079044}. Best is trial 84 with value: 2515.3490927833504.</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.033424343621099924</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.6803865081582878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2791592637711264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.1673013272733703</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 7.291284161127008e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.2906217646237257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.1089742293569653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -1.0760603827551032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.0974999068093614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 2.159020259889273e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9561410456732121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9755385688026891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.22512273486025552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.038934903025218764}. Best is trial 84 with value: 2515.3490927833504. </t>
+  </si>
+  <si>
+    <t>P-15</t>
+  </si>
+  <si>
+    <t>P_14</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.06976748570068636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.7031840270142826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.3736559851030032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.370527088282008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 5.099569789843523e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.27002630801618377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.2006270382609852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -1.1373782536958372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 0.9183153315908629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 0.00036529761855305995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9373806202176476</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9539161953969619</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.10327074757515992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.013922688117154487}.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +677,18 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,6 +725,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,11 +1061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9067D9-17F2-1D45-A495-3CDCF8C57E4C}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -773,7 +1089,7 @@
     <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -781,7 +1097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
         <v>1800</v>
@@ -835,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -867,7 +1183,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>2100</v>
@@ -921,7 +1237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>2132</v>
@@ -975,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>2050</v>
@@ -1029,7 +1345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1">
+    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
@@ -1039,7 +1355,7 @@
       <c r="C7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1057,7 +1373,7 @@
       <c r="I7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1072,20 +1388,20 @@
       <c r="N7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1">
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -1095,7 +1411,7 @@
       <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1113,7 +1429,7 @@
       <c r="I8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1128,17 +1444,394 @@
       <c r="N8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>95</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="8" t="s">
         <v>97</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2515</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>2475</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>1914</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>2201</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>2409</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2681</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Best Rewards.xlsx
+++ b/Docs/Best Rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignazioemanuelepicciche/Documents/Ignazio PC/ucbm/deep_learning/Reinforcement_Learning_MuJoCu/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F7FB6-1014-7848-9690-67997314135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D581A-D841-3849-A759-DD3053026B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{C9C1077D-C134-CF42-B9E2-07BC45F34DC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
   <si>
     <t xml:space="preserve"> 'n_steps': 4096</t>
   </si>
@@ -639,13 +639,106 @@
   </si>
   <si>
     <t xml:space="preserve"> 'ent_coef': 0.013922688117154487}.</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.10340640550745006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.7316798226755399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.3431791463786378</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.4675748630080876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 9.874201288446414e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.3483299533071902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.2738868349210701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -1.1329009828313024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 0.9421168936981189</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 0.0008288719683865925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'n_steps': 12288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.9591029149494671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9541845003001236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.10331326443472709</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.02661587350926783}</t>
+  </si>
+  <si>
+    <t>{'reset_noise_scale': 0.09578929233536823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'forward_reward_weight': 1.7429234815641454</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ctrl_cost_weight': 1.2489277534682572</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_reward': 2.465857784440316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_cost_weight': 4.3589765806323675e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_lower': 0.3413951260140689</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'healthy_z_upper': 1.3057167416301527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_min': -1.192846651406859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'contact_force_max': 1.0724279378513066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 0.0008066765307245294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gamma': 0.956833700373414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'gae_lambda': 0.9782417047710235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clip_range': 0.14429906555607105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ent_coef': 0.02251015458483032}.</t>
+  </si>
+  <si>
+    <t>P_16</t>
+  </si>
+  <si>
+    <t>P_17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -689,6 +782,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -716,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,6 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9067D9-17F2-1D45-A495-3CDCF8C57E4C}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,6 +1934,118 @@
         <v>200</v>
       </c>
     </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2740</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2805</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
